--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H2">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N2">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q2">
-        <v>181.106102550166</v>
+        <v>51.49483861534199</v>
       </c>
       <c r="R2">
-        <v>1629.954922951494</v>
+        <v>463.4535475380779</v>
       </c>
       <c r="S2">
-        <v>0.0276298376092645</v>
+        <v>0.009339106700679514</v>
       </c>
       <c r="T2">
-        <v>0.0276298376092645</v>
+        <v>0.009339106700679516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H3">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q3">
-        <v>1858.24515547062</v>
+        <v>1295.00268342732</v>
       </c>
       <c r="R3">
-        <v>16724.20639923558</v>
+        <v>11655.02415084588</v>
       </c>
       <c r="S3">
-        <v>0.2834968626727185</v>
+        <v>0.2348617563118411</v>
       </c>
       <c r="T3">
-        <v>0.2834968626727185</v>
+        <v>0.2348617563118411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H4">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q4">
-        <v>634.7409255003691</v>
+        <v>442.348093514034</v>
       </c>
       <c r="R4">
-        <v>5712.668329503321</v>
+        <v>3981.132841626305</v>
       </c>
       <c r="S4">
-        <v>0.09683709410438845</v>
+        <v>0.08022427402926015</v>
       </c>
       <c r="T4">
-        <v>0.09683709410438845</v>
+        <v>0.08022427402926015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N5">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O5">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P5">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q5">
-        <v>162.9483028624763</v>
+        <v>66.48333538677633</v>
       </c>
       <c r="R5">
-        <v>1466.534725762286</v>
+        <v>598.3500184809869</v>
       </c>
       <c r="S5">
-        <v>0.02485965455276891</v>
+        <v>0.01205742128123072</v>
       </c>
       <c r="T5">
-        <v>0.02485965455276891</v>
+        <v>0.01205742128123073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>82.25658</v>
       </c>
       <c r="O6">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P6">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q6">
         <v>1671.93645118878</v>
@@ -818,10 +818,10 @@
         <v>15047.42806069902</v>
       </c>
       <c r="S6">
-        <v>0.255073307795136</v>
+        <v>0.303222484704621</v>
       </c>
       <c r="T6">
-        <v>0.255073307795136</v>
+        <v>0.303222484704621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>28.097271</v>
       </c>
       <c r="O7">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P7">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q7">
         <v>571.1014433596611</v>
@@ -880,10 +880,10 @@
         <v>5139.912990236949</v>
       </c>
       <c r="S7">
-        <v>0.08712815259261143</v>
+        <v>0.1035749884816399</v>
       </c>
       <c r="T7">
-        <v>0.08712815259261142</v>
+        <v>0.1035749884816399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N8">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O8">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P8">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q8">
-        <v>99.87249457752047</v>
+        <v>40.74824000170867</v>
       </c>
       <c r="R8">
-        <v>898.8524511976842</v>
+        <v>366.734160015378</v>
       </c>
       <c r="S8">
-        <v>0.01523670802890076</v>
+        <v>0.007390102998157093</v>
       </c>
       <c r="T8">
-        <v>0.01523670802890076</v>
+        <v>0.007390102998157092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>82.25658</v>
       </c>
       <c r="O9">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P9">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q9">
         <v>1024.74503398932</v>
@@ -1004,10 +1004,10 @@
         <v>9222.705305903881</v>
       </c>
       <c r="S9">
-        <v>0.1563367466989819</v>
+        <v>0.1858478144752636</v>
       </c>
       <c r="T9">
-        <v>0.1563367466989819</v>
+        <v>0.1858478144752636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>28.097271</v>
       </c>
       <c r="O10">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P10">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q10">
         <v>350.033260875934</v>
@@ -1066,10 +1066,10 @@
         <v>3150.299347883406</v>
       </c>
       <c r="S10">
-        <v>0.05340163594522954</v>
+        <v>0.06348205101730711</v>
       </c>
       <c r="T10">
-        <v>0.05340163594522954</v>
+        <v>0.0634820510173071</v>
       </c>
     </row>
   </sheetData>
